--- a/zpokemonz/Assets/Excel/Localization.xlsx
+++ b/zpokemonz/Assets/Excel/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12140"/>
+    <workbookView windowHeight="16960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>索引</t>
   </si>
@@ -49,25 +49,26 @@
     <t>string</t>
   </si>
   <si>
-    <t>开始游戏</t>
-  </si>
-  <si>
-    <t>开始</t>
-  </si>
-  <si>
-    <t>Start the game</t>
-  </si>
-  <si>
-    <t>ゲームを
-はじめ
-始め
-ます</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>白色123</t>
+    <t xml:space="preserve">我们不惜吝啬几十万军人的鲜血，换来的却只是一纸屈辱性的合约，祖国在紧随而至的大革命中土崩瓦解！
+</t>
+  </si>
+  <si>
+    <t>祖国如此，我也如此。</t>
+  </si>
+  <si>
+    <t>我的人生也一败涂地……</t>
+  </si>
+  <si>
+    <t>克蕾雅，你可不能自暴自弃呀……</t>
+  </si>
+  <si>
+    <t>覆水难收，而我们只能往前看。</t>
+  </si>
+  <si>
+    <t>我们会英勇地击败任何敌人，在战场上。</t>
+  </si>
+  <si>
+    <t>如果需要的话，我们会再来一次……</t>
   </si>
 </sst>
 </file>
@@ -75,10 +76,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -97,21 +98,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,116 +194,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,19 +250,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,19 +340,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,43 +412,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,91 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,24 +441,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -472,6 +455,63 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,30 +533,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -525,166 +541,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,19 +1016,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.4732142857143" customWidth="1"/>
-    <col min="2" max="2" width="18.3035714285714" customWidth="1"/>
-    <col min="3" max="3" width="29.1696428571429" customWidth="1"/>
-    <col min="4" max="4" width="26.0357142857143" customWidth="1"/>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="39.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="31.2410714285714" customWidth="1"/>
+    <col min="3" max="3" width="45.0892857142857" customWidth="1"/>
+    <col min="4" max="4" width="41.6607142857143" customWidth="1"/>
+    <col min="5" max="5" width="55.8035714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" spans="1:5">
@@ -1081,65 +1082,82 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="50" spans="1:5">
+    <row r="4" ht="93" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="14" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="14" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" ht="14" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="14" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>123</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="14" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5">
-        <v>2345</v>
-      </c>
-      <c r="E5">
-        <v>567</v>
+      <c r="B9" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" ht="50" spans="1:5">
-      <c r="A6" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" ht="13.2" spans="1:1">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" ht="13.2" spans="1:1">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" ht="13.2" spans="1:1">
-      <c r="A9" s="1"/>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
